--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -34,6 +34,33 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>Fall 2023</t>
+  </si>
+  <si>
+    <t>Spring 2023</t>
+  </si>
+  <si>
+    <t>Summer 2023</t>
+  </si>
+  <si>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Summer 2024</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>Spring 2025</t>
+  </si>
+  <si>
+    <t>Summer 2025</t>
+  </si>
+  <si>
     <t>CPSC 1301K</t>
   </si>
   <si>
@@ -59,6 +86,21 @@
   </si>
   <si>
     <t>CYBR 3119</t>
+  </si>
+  <si>
+    <t>CPSC 4111</t>
+  </si>
+  <si>
+    <t>CPSC 4115</t>
+  </si>
+  <si>
+    <t>CPSC 6180</t>
+  </si>
+  <si>
+    <t>CPSC 6185</t>
+  </si>
+  <si>
+    <t>CPSC 6985</t>
   </si>
 </sst>
 </file>
@@ -401,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,13 +486,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -458,13 +500,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -472,13 +514,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -486,24 +528,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -526,6 +560,179 @@
       </c>
       <c r="F11">
         <f>SUM(F4:F10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <f>SUM(B13:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D13:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f>SUM(F13:F19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B22:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D22:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f>SUM(F22:F28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <f>SUM(B31:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D31:D37)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -43,6 +43,36 @@
     <t>Summer 2023</t>
   </si>
   <si>
+    <t>CPSC 1301K</t>
+  </si>
+  <si>
+    <t>CPSC 1302</t>
+  </si>
+  <si>
+    <t>CPSC 2108</t>
+  </si>
+  <si>
+    <t>CYBR 2159</t>
+  </si>
+  <si>
+    <t>CYBR 2160</t>
+  </si>
+  <si>
+    <t>CYBR 3106</t>
+  </si>
+  <si>
+    <t>CYBR 3108</t>
+  </si>
+  <si>
+    <t>CYBR 3115</t>
+  </si>
+  <si>
+    <t>CYBR 3119</t>
+  </si>
+  <si>
+    <t>CPSC 4111</t>
+  </si>
+  <si>
     <t>Fall 2024</t>
   </si>
   <si>
@@ -50,45 +80,6 @@
   </si>
   <si>
     <t>Summer 2024</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>Spring 2025</t>
-  </si>
-  <si>
-    <t>Summer 2025</t>
-  </si>
-  <si>
-    <t>CPSC 1301K</t>
-  </si>
-  <si>
-    <t>CPSC 1302</t>
-  </si>
-  <si>
-    <t>CPSC 2108</t>
-  </si>
-  <si>
-    <t>CYBR 2159</t>
-  </si>
-  <si>
-    <t>CYBR 2160</t>
-  </si>
-  <si>
-    <t>CYBR 3106</t>
-  </si>
-  <si>
-    <t>CYBR 3108</t>
-  </si>
-  <si>
-    <t>CYBR 3115</t>
-  </si>
-  <si>
-    <t>CYBR 3119</t>
-  </si>
-  <si>
-    <t>CPSC 4111</t>
   </si>
   <si>
     <t>CPSC 4115</t>
@@ -443,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F38"/>
+  <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,13 +477,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -500,13 +491,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -514,13 +505,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -528,16 +519,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -585,45 +576,47 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
         <v>3</v>
       </c>
     </row>
@@ -652,19 +645,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
@@ -690,49 +683,6 @@
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <f>SUM(B31:B37)</f>
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <f>SUM(D31:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -43,6 +43,15 @@
     <t>Summer 2023</t>
   </si>
   <si>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Summer 2024</t>
+  </si>
+  <si>
     <t>CPSC 1301K</t>
   </si>
   <si>
@@ -70,16 +79,25 @@
     <t>CYBR 3119</t>
   </si>
   <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>Spring 2025</t>
+  </si>
+  <si>
+    <t>Summer 2025</t>
+  </si>
+  <si>
+    <t>Fall 2026</t>
+  </si>
+  <si>
+    <t>Spring 2026</t>
+  </si>
+  <si>
+    <t>Summer 2026</t>
+  </si>
+  <si>
     <t>CPSC 4111</t>
-  </si>
-  <si>
-    <t>Fall 2024</t>
-  </si>
-  <si>
-    <t>Spring 2024</t>
-  </si>
-  <si>
-    <t>Summer 2024</t>
   </si>
   <si>
     <t>CPSC 4115</t>
@@ -434,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A2:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,57 +495,23 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
         <v>3</v>
       </c>
     </row>
@@ -576,47 +560,29 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
     </row>
@@ -645,21 +611,49 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
         <v>3</v>
       </c>
     </row>
@@ -683,6 +677,114 @@
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <f>SUM(B31:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D31:D37)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <f>SUM(F31:F37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <f>SUM(B40:B46)</f>
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <f>SUM(D40:D46)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -43,6 +43,45 @@
     <t>Summer 2023</t>
   </si>
   <si>
+    <t>CPSC 1301K</t>
+  </si>
+  <si>
+    <t>CPSC 1302</t>
+  </si>
+  <si>
+    <t>CPSC 2108</t>
+  </si>
+  <si>
+    <t>CYBR 2159</t>
+  </si>
+  <si>
+    <t>CYBR 2160</t>
+  </si>
+  <si>
+    <t>CYBR 3106</t>
+  </si>
+  <si>
+    <t>CYBR 3108</t>
+  </si>
+  <si>
+    <t>CYBR 3115</t>
+  </si>
+  <si>
+    <t>CYBR 3119</t>
+  </si>
+  <si>
+    <t>CPSC 4111</t>
+  </si>
+  <si>
+    <t>CPSC 4115</t>
+  </si>
+  <si>
+    <t>CPSC 6180</t>
+  </si>
+  <si>
+    <t>CPSC 6185</t>
+  </si>
+  <si>
     <t>Fall 2024</t>
   </si>
   <si>
@@ -50,63 +89,6 @@
   </si>
   <si>
     <t>Summer 2024</t>
-  </si>
-  <si>
-    <t>CPSC 1301K</t>
-  </si>
-  <si>
-    <t>CPSC 1302</t>
-  </si>
-  <si>
-    <t>CPSC 2108</t>
-  </si>
-  <si>
-    <t>CYBR 2159</t>
-  </si>
-  <si>
-    <t>CYBR 2160</t>
-  </si>
-  <si>
-    <t>CYBR 3106</t>
-  </si>
-  <si>
-    <t>CYBR 3108</t>
-  </si>
-  <si>
-    <t>CYBR 3115</t>
-  </si>
-  <si>
-    <t>CYBR 3119</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>Spring 2025</t>
-  </si>
-  <si>
-    <t>Summer 2025</t>
-  </si>
-  <si>
-    <t>Fall 2026</t>
-  </si>
-  <si>
-    <t>Spring 2026</t>
-  </si>
-  <si>
-    <t>Summer 2026</t>
-  </si>
-  <si>
-    <t>CPSC 4111</t>
-  </si>
-  <si>
-    <t>CPSC 4115</t>
-  </si>
-  <si>
-    <t>CPSC 6180</t>
-  </si>
-  <si>
-    <t>CPSC 6185</t>
   </si>
   <si>
     <t>CPSC 6985</t>
@@ -452,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F47"/>
+  <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,23 +477,49 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
     </row>
@@ -560,29 +568,49 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
       <c r="D13">
         <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
     </row>
@@ -611,49 +639,21 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23">
         <v>3</v>
       </c>
     </row>
@@ -677,114 +677,6 @@
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <f>SUM(B31:B37)</f>
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <f>SUM(D31:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <f>SUM(F31:F37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <f>SUM(B40:B46)</f>
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <f>SUM(D40:D46)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -80,15 +80,6 @@
   </si>
   <si>
     <t>CPSC 6185</t>
-  </si>
-  <si>
-    <t>Fall 2024</t>
-  </si>
-  <si>
-    <t>Spring 2024</t>
-  </si>
-  <si>
-    <t>Summer 2024</t>
   </si>
   <si>
     <t>CPSC 6985</t>
@@ -434,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,19 +499,33 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>3</v>
+      </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -579,12 +584,6 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -601,12 +600,6 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -634,49 +627,6 @@
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <f>SUM(B22:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <f>SUM(D22:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -34,6 +34,12 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>POLS 1101</t>
+  </si>
+  <si>
+    <t>KINS 1105</t>
+  </si>
+  <si>
     <t>Fall 2023</t>
   </si>
   <si>
@@ -43,46 +49,136 @@
     <t>Summer 2023</t>
   </si>
   <si>
-    <t>CPSC 1301K</t>
-  </si>
-  <si>
-    <t>CPSC 1302</t>
-  </si>
-  <si>
-    <t>CPSC 2108</t>
-  </si>
-  <si>
-    <t>CYBR 2159</t>
-  </si>
-  <si>
-    <t>CYBR 2160</t>
-  </si>
-  <si>
-    <t>CYBR 3106</t>
-  </si>
-  <si>
-    <t>CYBR 3108</t>
-  </si>
-  <si>
-    <t>CYBR 3115</t>
-  </si>
-  <si>
-    <t>CYBR 3119</t>
-  </si>
-  <si>
-    <t>CPSC 4111</t>
-  </si>
-  <si>
-    <t>CPSC 4115</t>
-  </si>
-  <si>
-    <t>CPSC 6180</t>
-  </si>
-  <si>
-    <t>CPSC 6185</t>
-  </si>
-  <si>
-    <t>CPSC 6985</t>
+    <t>KINS 1106</t>
+  </si>
+  <si>
+    <t>KINS 2105</t>
+  </si>
+  <si>
+    <t>KINS 2135</t>
+  </si>
+  <si>
+    <t>KINS 2271</t>
+  </si>
+  <si>
+    <t>KINS 2272</t>
+  </si>
+  <si>
+    <t>KINS 2345</t>
+  </si>
+  <si>
+    <t>KINS 2379</t>
+  </si>
+  <si>
+    <t>KINS 3105</t>
+  </si>
+  <si>
+    <t>KINS 3107</t>
+  </si>
+  <si>
+    <t>DSCI 3111</t>
+  </si>
+  <si>
+    <t>CPSC 3121</t>
+  </si>
+  <si>
+    <t>KINS 3126</t>
+  </si>
+  <si>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Summer 2024</t>
+  </si>
+  <si>
+    <t>KINS 3127</t>
+  </si>
+  <si>
+    <t>CPSC 3165</t>
+  </si>
+  <si>
+    <t>KINS 3165</t>
+  </si>
+  <si>
+    <t>KINS 3218</t>
+  </si>
+  <si>
+    <t>KINS 3235</t>
+  </si>
+  <si>
+    <t>KINS 3255</t>
+  </si>
+  <si>
+    <t>KINS 3256</t>
+  </si>
+  <si>
+    <t>KINS 3257</t>
+  </si>
+  <si>
+    <t>KINS 3258</t>
+  </si>
+  <si>
+    <t>KINS 3316</t>
+  </si>
+  <si>
+    <t>KINS 3365</t>
+  </si>
+  <si>
+    <t>CPSC 3415</t>
+  </si>
+  <si>
+    <t>CYBR 4125</t>
+  </si>
+  <si>
+    <t>CPSC 4135</t>
+  </si>
+  <si>
+    <t>CYBR 4145</t>
+  </si>
+  <si>
+    <t>CPSC 4148</t>
+  </si>
+  <si>
+    <t>CPSC 4155</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>Spring 2025</t>
+  </si>
+  <si>
+    <t>Summer 2025</t>
+  </si>
+  <si>
+    <t>CPSC 4157</t>
+  </si>
+  <si>
+    <t>CPSC 4175</t>
+  </si>
+  <si>
+    <t>CPSC 4176</t>
+  </si>
+  <si>
+    <t>CPSC 4205</t>
+  </si>
+  <si>
+    <t>CYBR 4416</t>
+  </si>
+  <si>
+    <t>CPSC 4555</t>
+  </si>
+  <si>
+    <t>CPSC 4698</t>
+  </si>
+  <si>
+    <t>CPSC 4899</t>
+  </si>
+  <si>
+    <t>CPSC 4000</t>
   </si>
 </sst>
 </file>
@@ -425,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,19 +564,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -488,44 +584,98 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -553,19 +703,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -573,37 +723,111 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
     </row>
@@ -627,6 +851,144 @@
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B22:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D22:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f>SUM(F22:F28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <f>SUM(B31:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D31:D37)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -37,9 +37,6 @@
     <t>POLS 1101</t>
   </si>
   <si>
-    <t>KINS 1105</t>
-  </si>
-  <si>
     <t>Fall 2023</t>
   </si>
   <si>
@@ -49,40 +46,31 @@
     <t>Summer 2023</t>
   </si>
   <si>
-    <t>KINS 1106</t>
-  </si>
-  <si>
-    <t>KINS 2105</t>
-  </si>
-  <si>
-    <t>KINS 2135</t>
-  </si>
-  <si>
-    <t>KINS 2271</t>
-  </si>
-  <si>
-    <t>KINS 2272</t>
-  </si>
-  <si>
-    <t>KINS 2345</t>
-  </si>
-  <si>
-    <t>KINS 2379</t>
-  </si>
-  <si>
-    <t>KINS 3105</t>
-  </si>
-  <si>
-    <t>KINS 3107</t>
-  </si>
-  <si>
     <t>DSCI 3111</t>
   </si>
   <si>
     <t>CPSC 3121</t>
   </si>
   <si>
-    <t>KINS 3126</t>
+    <t>CPSC 3165</t>
+  </si>
+  <si>
+    <t>GEOL 3225</t>
+  </si>
+  <si>
+    <t>CYBR 4125</t>
+  </si>
+  <si>
+    <t>CPSC 4135</t>
+  </si>
+  <si>
+    <t>CPSC 4148</t>
+  </si>
+  <si>
+    <t>CPSC 4155</t>
+  </si>
+  <si>
+    <t>CPSC 4157</t>
   </si>
   <si>
     <t>Fall 2024</t>
@@ -94,69 +82,6 @@
     <t>Summer 2024</t>
   </si>
   <si>
-    <t>KINS 3127</t>
-  </si>
-  <si>
-    <t>CPSC 3165</t>
-  </si>
-  <si>
-    <t>KINS 3165</t>
-  </si>
-  <si>
-    <t>KINS 3218</t>
-  </si>
-  <si>
-    <t>KINS 3235</t>
-  </si>
-  <si>
-    <t>KINS 3255</t>
-  </si>
-  <si>
-    <t>KINS 3256</t>
-  </si>
-  <si>
-    <t>KINS 3257</t>
-  </si>
-  <si>
-    <t>KINS 3258</t>
-  </si>
-  <si>
-    <t>KINS 3316</t>
-  </si>
-  <si>
-    <t>KINS 3365</t>
-  </si>
-  <si>
-    <t>CPSC 3415</t>
-  </si>
-  <si>
-    <t>CYBR 4125</t>
-  </si>
-  <si>
-    <t>CPSC 4135</t>
-  </si>
-  <si>
-    <t>CYBR 4145</t>
-  </si>
-  <si>
-    <t>CPSC 4148</t>
-  </si>
-  <si>
-    <t>CPSC 4155</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>Spring 2025</t>
-  </si>
-  <si>
-    <t>Summer 2025</t>
-  </si>
-  <si>
-    <t>CPSC 4157</t>
-  </si>
-  <si>
     <t>CPSC 4175</t>
   </si>
   <si>
@@ -166,16 +91,7 @@
     <t>CPSC 4205</t>
   </si>
   <si>
-    <t>CYBR 4416</t>
-  </si>
-  <si>
     <t>CPSC 4555</t>
-  </si>
-  <si>
-    <t>CPSC 4698</t>
-  </si>
-  <si>
-    <t>CPSC 4899</t>
   </si>
   <si>
     <t>CPSC 4000</t>
@@ -521,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F38"/>
+  <dimension ref="A2:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,21 +462,6 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -569,37 +470,16 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -607,19 +487,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -627,19 +501,16 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -650,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -658,24 +529,27 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -686,309 +560,153 @@
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <f>SUM(D4:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <f>SUM(F4:F10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
+        <f>SUM(D6:D12)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
+        <f>SUM(F8:F14)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <f>SUM(B13:B19)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <f>SUM(D13:D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <f>SUM(F13:F19)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <f>SUM(B22:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <f>SUM(D22:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <f>SUM(F22:F28)</f>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <f>SUM(B21:B27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
       <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <f>SUM(B31:B37)</f>
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <f>SUM(D31:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <f>SUM(F31:F37)</f>
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <f>SUM(D23:D29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f>SUM(F25:F31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <f>SUM(B38:B44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <f>SUM(D40:D46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <f>SUM(F42:F48)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>394728739813</t>
+  </si>
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -37,6 +43,9 @@
     <t>POLS 1101</t>
   </si>
   <si>
+    <t>KINS 2345</t>
+  </si>
+  <si>
     <t>Fall 2023</t>
   </si>
   <si>
@@ -52,10 +61,19 @@
     <t>CPSC 3121</t>
   </si>
   <si>
+    <t>ARTH 3130</t>
+  </si>
+  <si>
     <t>CPSC 3165</t>
   </si>
   <si>
-    <t>GEOL 3225</t>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Summer 2024</t>
   </si>
   <si>
     <t>CYBR 4125</t>
@@ -73,25 +91,16 @@
     <t>CPSC 4157</t>
   </si>
   <si>
-    <t>Fall 2024</t>
-  </si>
-  <si>
-    <t>Spring 2024</t>
-  </si>
-  <si>
-    <t>Summer 2024</t>
-  </si>
-  <si>
     <t>CPSC 4175</t>
   </si>
   <si>
     <t>CPSC 4176</t>
   </si>
   <si>
-    <t>CPSC 4205</t>
-  </si>
-  <si>
     <t>CPSC 4555</t>
+  </si>
+  <si>
+    <t>CPSC 4899</t>
   </si>
   <si>
     <t>CPSC 4000</t>
@@ -437,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F49"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,9 +457,17 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -460,37 +477,73 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -498,215 +551,166 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D4:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F4:F10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <f>SUM(D6:D12)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <f>SUM(F8:F14)</f>
-        <v>0</v>
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <f>SUM(B13:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D13:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <f>SUM(F13:F19)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="F26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <f>SUM(B21:B27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <f>SUM(D23:D29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <f>SUM(F25:F31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="D41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="F43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <f>SUM(B38:B44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <f>SUM(D40:D46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6">
-      <c r="E49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <f>SUM(F42:F48)</f>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B22:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D22:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
-  <si>
-    <t>Philip</t>
-  </si>
-  <si>
-    <t>394728739813</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -43,9 +37,6 @@
     <t>POLS 1101</t>
   </si>
   <si>
-    <t>KINS 2345</t>
-  </si>
-  <si>
     <t>Fall 2023</t>
   </si>
   <si>
@@ -58,15 +49,30 @@
     <t>DSCI 3111</t>
   </si>
   <si>
+    <t>ARTH 3117</t>
+  </si>
+  <si>
     <t>CPSC 3121</t>
   </si>
   <si>
-    <t>ARTH 3130</t>
+    <t>ARTH 3136</t>
   </si>
   <si>
     <t>CPSC 3165</t>
   </si>
   <si>
+    <t>CPSC 3415</t>
+  </si>
+  <si>
+    <t>CPSC 4135</t>
+  </si>
+  <si>
+    <t>CPSC 4148</t>
+  </si>
+  <si>
+    <t>CPSC 4155</t>
+  </si>
+  <si>
     <t>Fall 2024</t>
   </si>
   <si>
@@ -76,18 +82,6 @@
     <t>Summer 2024</t>
   </si>
   <si>
-    <t>CYBR 4125</t>
-  </si>
-  <si>
-    <t>CPSC 4135</t>
-  </si>
-  <si>
-    <t>CPSC 4148</t>
-  </si>
-  <si>
-    <t>CPSC 4155</t>
-  </si>
-  <si>
     <t>CPSC 4157</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
   </si>
   <si>
     <t>CPSC 4555</t>
-  </si>
-  <si>
-    <t>CPSC 4899</t>
   </si>
   <si>
     <t>CPSC 4000</t>
@@ -446,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,17 +448,9 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -477,27 +460,27 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -508,36 +491,24 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -551,29 +522,57 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <f>SUM(F4:F10)</f>
@@ -582,89 +581,71 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <f>SUM(B13:B19)</f>
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <f>SUM(D13:D19)</f>
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>
@@ -673,41 +654,41 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <f>SUM(B22:B28)</f>
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <f>SUM(D22:D28)</f>
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -34,30 +34,30 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>Fall 2023</t>
+  </si>
+  <si>
+    <t>Spring 2023</t>
+  </si>
+  <si>
+    <t>Summer 2023</t>
+  </si>
+  <si>
+    <t>FINC 1100</t>
+  </si>
+  <si>
     <t>POLS 1101</t>
   </si>
   <si>
-    <t>Fall 2023</t>
-  </si>
-  <si>
-    <t>Spring 2023</t>
-  </si>
-  <si>
-    <t>Summer 2023</t>
+    <t>GEOL 1110</t>
   </si>
   <si>
     <t>DSCI 3111</t>
   </si>
   <si>
-    <t>ARTH 3117</t>
-  </si>
-  <si>
     <t>CPSC 3121</t>
   </si>
   <si>
-    <t>ARTH 3136</t>
-  </si>
-  <si>
     <t>CPSC 3165</t>
   </si>
   <si>
@@ -67,6 +67,9 @@
     <t>CPSC 4135</t>
   </si>
   <si>
+    <t>CYBR 4145</t>
+  </si>
+  <si>
     <t>CPSC 4148</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>CPSC 4176</t>
   </si>
   <si>
-    <t>CPSC 4555</t>
+    <t>CPSC 4899</t>
   </si>
   <si>
     <t>CPSC 4000</t>
@@ -480,7 +483,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -489,6 +492,12 @@
         <v>14</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
@@ -550,7 +559,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -581,19 +590,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
         <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -601,13 +610,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -623,7 +632,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -654,19 +663,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>POLS 1101</t>
+  </si>
+  <si>
     <t>Fall 2023</t>
   </si>
   <si>
@@ -43,13 +46,7 @@
     <t>Summer 2023</t>
   </si>
   <si>
-    <t>FINC 1100</t>
-  </si>
-  <si>
-    <t>POLS 1101</t>
-  </si>
-  <si>
-    <t>GEOL 1110</t>
+    <t>GEOL 1121K</t>
   </si>
   <si>
     <t>DSCI 3111</t>
@@ -61,21 +58,21 @@
     <t>CPSC 3165</t>
   </si>
   <si>
-    <t>CPSC 3415</t>
+    <t>CPSC 4000</t>
   </si>
   <si>
     <t>CPSC 4135</t>
   </si>
   <si>
-    <t>CYBR 4145</t>
-  </si>
-  <si>
     <t>CPSC 4148</t>
   </si>
   <si>
     <t>CPSC 4155</t>
   </si>
   <si>
+    <t>CPSC 4157</t>
+  </si>
+  <si>
     <t>Fall 2024</t>
   </si>
   <si>
@@ -85,19 +82,16 @@
     <t>Summer 2024</t>
   </si>
   <si>
-    <t>CPSC 4157</t>
-  </si>
-  <si>
     <t>CPSC 4175</t>
   </si>
   <si>
     <t>CPSC 4176</t>
   </si>
   <si>
-    <t>CPSC 4899</t>
-  </si>
-  <si>
-    <t>CPSC 4000</t>
+    <t>CPSC 4205</t>
+  </si>
+  <si>
+    <t>CPSC 4555</t>
   </si>
 </sst>
 </file>
@@ -483,21 +477,15 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
         <v>3</v>
       </c>
     </row>
@@ -506,13 +494,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -545,10 +533,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -557,14 +545,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>2</v>
@@ -590,19 +570,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -610,13 +590,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -624,7 +604,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -632,7 +612,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -663,19 +643,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
         <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>POLS 1101</t>
+  </si>
+  <si>
     <t>Fall 2023</t>
   </si>
   <si>
@@ -43,25 +46,34 @@
     <t>Summer 2023</t>
   </si>
   <si>
-    <t>CPSC 1301K</t>
-  </si>
-  <si>
-    <t>CPSC 1302</t>
-  </si>
-  <si>
-    <t>CPSC 2108</t>
-  </si>
-  <si>
-    <t>CYBR 2159</t>
-  </si>
-  <si>
-    <t>CYBR 2160</t>
-  </si>
-  <si>
-    <t>CYBR 3106</t>
-  </si>
-  <si>
-    <t>CYBR 3108</t>
+    <t>GEOL 1121K</t>
+  </si>
+  <si>
+    <t>DSCI 3111</t>
+  </si>
+  <si>
+    <t>CPSC 3121</t>
+  </si>
+  <si>
+    <t>CPSC 3165</t>
+  </si>
+  <si>
+    <t>CPSC 3415</t>
+  </si>
+  <si>
+    <t>CPSC 4000</t>
+  </si>
+  <si>
+    <t>CPSC 4135</t>
+  </si>
+  <si>
+    <t>CPSC 4148</t>
+  </si>
+  <si>
+    <t>CPSC 4155</t>
+  </si>
+  <si>
+    <t>CPSC 4157</t>
   </si>
   <si>
     <t>Fall 2024</t>
@@ -73,43 +85,16 @@
     <t>Summer 2024</t>
   </si>
   <si>
-    <t>CYBR 3115</t>
-  </si>
-  <si>
-    <t>CYBR 3119</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>Spring 2025</t>
-  </si>
-  <si>
-    <t>Summer 2025</t>
-  </si>
-  <si>
-    <t>CPSC 4111</t>
-  </si>
-  <si>
-    <t>CPSC 4115</t>
-  </si>
-  <si>
-    <t>Fall 2026</t>
-  </si>
-  <si>
-    <t>Spring 2026</t>
-  </si>
-  <si>
-    <t>Summer 2026</t>
-  </si>
-  <si>
-    <t>CPSC 6180</t>
-  </si>
-  <si>
-    <t>CPSC 6185</t>
-  </si>
-  <si>
-    <t>CPSC 6985</t>
+    <t>CPSC 4175</t>
+  </si>
+  <si>
+    <t>CPSC 4176</t>
+  </si>
+  <si>
+    <t>CYBR 4416</t>
+  </si>
+  <si>
+    <t>CPSC 4899</t>
   </si>
 </sst>
 </file>
@@ -452,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F47"/>
+  <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,24 +480,94 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>3</v>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -540,19 +595,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -560,29 +615,15 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14">
         <v>3</v>
       </c>
     </row>
@@ -611,49 +652,21 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23">
         <v>3</v>
       </c>
     </row>
@@ -677,114 +690,6 @@
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <f>SUM(B31:B37)</f>
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <f>SUM(D31:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <f>SUM(F31:F37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <f>SUM(B40:B46)</f>
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <f>SUM(D40:D46)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -64,6 +70,9 @@
     <t>CPSC 4000</t>
   </si>
   <si>
+    <t>CYBR 4125</t>
+  </si>
+  <si>
     <t>CPSC 4135</t>
   </si>
   <si>
@@ -73,18 +82,18 @@
     <t>CPSC 4155</t>
   </si>
   <si>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Summer 2024</t>
+  </si>
+  <si>
     <t>CPSC 4157</t>
   </si>
   <si>
-    <t>Fall 2024</t>
-  </si>
-  <si>
-    <t>Spring 2024</t>
-  </si>
-  <si>
-    <t>Summer 2024</t>
-  </si>
-  <si>
     <t>CPSC 4175</t>
   </si>
   <si>
@@ -92,9 +101,6 @@
   </si>
   <si>
     <t>CYBR 4416</t>
-  </si>
-  <si>
-    <t>CPSC 4899</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,9 +454,17 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -460,53 +474,47 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -514,13 +522,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -528,13 +536,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -542,13 +550,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -556,7 +564,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -564,7 +572,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -572,21 +580,21 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f>SUM(F4:F10)</f>
@@ -595,55 +603,63 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <f>SUM(B13:B19)</f>
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <f>SUM(D13:D19)</f>
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>
@@ -652,41 +668,41 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <f>SUM(B22:B28)</f>
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <f>SUM(D22:D28)</f>
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 2.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+  <si>
+    <t>dadaw</t>
+  </si>
+  <si>
+    <t>32423</t>
+  </si>
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -34,6 +40,9 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>PSYC 1101</t>
+  </si>
+  <si>
     <t>POLS 1101</t>
   </si>
   <si>
@@ -46,7 +55,7 @@
     <t>Summer 2023</t>
   </si>
   <si>
-    <t>GEOL 1121K</t>
+    <t>PSYC 1105</t>
   </si>
   <si>
     <t>DSCI 3111</t>
@@ -58,6 +67,9 @@
     <t>CPSC 3165</t>
   </si>
   <si>
+    <t>CPSC 3415</t>
+  </si>
+  <si>
     <t>CPSC 4000</t>
   </si>
   <si>
@@ -88,10 +100,7 @@
     <t>CPSC 4176</t>
   </si>
   <si>
-    <t>CPSC 4205</t>
-  </si>
-  <si>
-    <t>CPSC 4555</t>
+    <t>CPSC 4899</t>
   </si>
 </sst>
 </file>
@@ -434,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,9 +454,17 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -457,47 +474,53 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -505,13 +528,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -519,13 +542,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -533,35 +556,51 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
-        <v>3</v>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f>SUM(F4:F10)</f>
@@ -570,71 +609,55 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <f>SUM(B13:B19)</f>
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <f>SUM(D13:D19)</f>
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>
@@ -643,41 +666,41 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <f>SUM(B22:B28)</f>
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <f>SUM(D22:D28)</f>
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>
